--- a/Jogos_do_Dia/2023-04-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.09</v>
+        <v>2.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2.98</v>
+        <v>2.84</v>
       </c>
       <c r="H2" t="n">
-        <v>3.38</v>
+        <v>3.21</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -650,13 +650,13 @@
         <v>1.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M2" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="N2" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -695,28 +695,28 @@
         <v>3.11</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="3">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.07</v>
+        <v>2.98</v>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>2.32</v>
+        <v>2.21</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N3" t="n">
         <v>1.57</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V3" t="n">
         <v>1.33</v>
@@ -805,13 +805,13 @@
         <v>3.34</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.52</v>
+        <v>1.83</v>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>3.02</v>
       </c>
       <c r="H4" t="n">
-        <v>5.95</v>
+        <v>3.52</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="N4" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="O4" t="n">
         <v>1.36</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.97</v>
+        <v>2.83</v>
       </c>
       <c r="H5" t="n">
-        <v>3.17</v>
+        <v>3.02</v>
       </c>
       <c r="I5" t="n">
         <v>1.09</v>
@@ -980,13 +980,13 @@
         <v>1.5</v>
       </c>
       <c r="L5" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M5" t="n">
-        <v>2.37</v>
+        <v>2.31</v>
       </c>
       <c r="N5" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1025,28 +1025,28 @@
         <v>2.59</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H6" t="n">
-        <v>4.67</v>
+        <v>4.55</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="N6" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="G7" t="n">
-        <v>3.57</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>5.85</v>
+        <v>5.43</v>
       </c>
       <c r="I7" t="n">
         <v>1.01</v>
@@ -1203,10 +1203,10 @@
         <v>2.8</v>
       </c>
       <c r="M7" t="n">
-        <v>2.16</v>
+        <v>2.15</v>
       </c>
       <c r="N7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O7" t="n">
         <v>1.46</v>
@@ -1245,22 +1245,22 @@
         <v>2.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H8" t="n">
-        <v>4.4</v>
+        <v>3.66</v>
       </c>
       <c r="I8" t="n">
         <v>1.09</v>
@@ -1313,10 +1313,10 @@
         <v>2.62</v>
       </c>
       <c r="M8" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1364,16 +1364,16 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -1400,13 +1400,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="G10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.97</v>
+        <v>2.78</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1531,10 +1531,10 @@
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>1.34</v>
@@ -1573,19 +1573,19 @@
         <v>2.81</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
@@ -1620,13 +1620,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1641,10 +1641,10 @@
         <v>3.3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
@@ -1683,28 +1683,28 @@
         <v>3.02</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="12">
@@ -1730,52 +1730,52 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="V12" t="n">
         <v>2.14</v>
@@ -1840,13 +1840,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1950,37 +1950,37 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.38</v>
+        <v>2.8</v>
       </c>
       <c r="G14" t="n">
-        <v>3.38</v>
+        <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="N14" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="Q14" t="n">
         <v>1.8</v>
@@ -1989,13 +1989,13 @@
         <v>1.91</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V14" t="n">
         <v>1.55</v>
@@ -2060,37 +2060,37 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="G15" t="n">
-        <v>3.13</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="M15" t="n">
         <v>2.1</v>
       </c>
       <c r="N15" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="Q15" t="n">
         <v>1.83</v>
@@ -2099,13 +2099,13 @@
         <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V15" t="n">
         <v>1.79</v>
@@ -2179,43 +2179,43 @@
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="M16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N16" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q16" t="n">
         <v>1.83</v>
       </c>
       <c r="R16" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V16" t="n">
         <v>2.05</v>
@@ -2280,52 +2280,52 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="V17" t="n">
         <v>1.57</v>
@@ -2390,52 +2390,52 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V18" t="n">
         <v>2.29</v>
@@ -2500,25 +2500,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="G19" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="H19" t="n">
-        <v>3.68</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
         <v>1.87</v>
@@ -2527,10 +2527,10 @@
         <v>1.87</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q19" t="n">
         <v>1.91</v>
@@ -2539,13 +2539,13 @@
         <v>1.8</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
         <v>1.17</v>
@@ -2610,13 +2610,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="G20" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="H20" t="n">
-        <v>4.7</v>
+        <v>4.21</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2631,10 +2631,10 @@
         <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="N20" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -2783,28 +2783,28 @@
         <v>1.9</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="22">
@@ -2830,13 +2830,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="G22" t="n">
-        <v>4.27</v>
+        <v>4.65</v>
       </c>
       <c r="H22" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2851,10 +2851,10 @@
         <v>4.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="N22" t="n">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="O22" t="n">
         <v>1.28</v>
@@ -2893,28 +2893,28 @@
         <v>3.33</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="23">
@@ -2940,25 +2940,25 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>3.18</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.13</v>
+        <v>2.25</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="M23" t="n">
         <v>2.05</v>
@@ -2967,10 +2967,10 @@
         <v>1.72</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
         <v>1.83</v>
@@ -2979,13 +2979,13 @@
         <v>1.83</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="V23" t="n">
         <v>1.5</v>
@@ -3050,31 +3050,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="V24" t="n">
         <v>1.59</v>
@@ -3160,31 +3160,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>4.65</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="V25" t="n">
         <v>1.29</v>
@@ -3270,31 +3270,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3303,19 +3303,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
         <v>1.47</v>
@@ -3380,37 +3380,37 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -3490,31 +3490,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3523,19 +3523,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V28" t="n">
         <v>1.94</v>
@@ -3600,22 +3600,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="G29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H29" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J29" t="n">
         <v>10.75</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L29" t="n">
         <v>3.45</v>
@@ -3627,7 +3627,7 @@
         <v>1.9</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3663,28 +3663,28 @@
         <v>2.45</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="30">
@@ -3710,25 +3710,25 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="G30" t="n">
-        <v>3.84</v>
+        <v>3.75</v>
       </c>
       <c r="H30" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.78</v>
@@ -3737,10 +3737,10 @@
         <v>1.95</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="Q30" t="n">
         <v>1.67</v>
@@ -3773,28 +3773,28 @@
         <v>2.47</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="31">
@@ -3820,13 +3820,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="G31" t="n">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.47</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
         <v>1.02</v>
@@ -3841,10 +3841,10 @@
         <v>3.3</v>
       </c>
       <c r="M31" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -3883,28 +3883,28 @@
         <v>2.93</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>2.77</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="32">
@@ -3993,28 +3993,28 @@
         <v>2.26</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AD32" t="n">
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -4043,49 +4043,49 @@
         <v>1.7</v>
       </c>
       <c r="G33" t="n">
-        <v>3.83</v>
+        <v>3.75</v>
       </c>
       <c r="H33" t="n">
-        <v>4.46</v>
+        <v>4.2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="M33" t="n">
         <v>1.93</v>
       </c>
       <c r="N33" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V33" t="n">
         <v>1.28</v>
@@ -4103,22 +4103,22 @@
         <v>2.69</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AB33" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD33" t="n">
         <v>0</v>
       </c>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG33" t="n">
         <v>0</v>
@@ -4150,13 +4150,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="G34" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H34" t="n">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="I34" t="n">
         <v>1.04</v>
@@ -4171,10 +4171,10 @@
         <v>4.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="N34" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
@@ -4260,13 +4260,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.54</v>
+        <v>2.85</v>
       </c>
       <c r="G35" t="n">
-        <v>3.08</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="I35" t="n">
         <v>1.03</v>
@@ -4281,10 +4281,10 @@
         <v>4.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="N35" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="O35" t="n">
         <v>1.28</v>
@@ -4370,13 +4370,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>7.35</v>
+        <v>8.5</v>
       </c>
       <c r="G36" t="n">
-        <v>4.67</v>
+        <v>5</v>
       </c>
       <c r="H36" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="I36" t="n">
         <v>1.03</v>
@@ -4391,10 +4391,10 @@
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="N36" t="n">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="O36" t="n">
         <v>1.35</v>
@@ -4480,13 +4480,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="G37" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="I37" t="n">
         <v>1.05</v>
@@ -4501,10 +4501,10 @@
         <v>3.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="N37" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>
@@ -4561,7 +4561,7 @@
         <v>0</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH37" t="n">
         <v>0</v>
@@ -4590,13 +4590,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="H38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I38" t="n">
         <v>1.05</v>
@@ -4611,7 +4611,7 @@
         <v>3.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="N38" t="n">
         <v>1.95</v>
@@ -4653,28 +4653,28 @@
         <v>2.98</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD38" t="n">
         <v>0</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="39">
@@ -4700,13 +4700,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G39" t="n">
-        <v>3.12</v>
+        <v>3.2</v>
       </c>
       <c r="H39" t="n">
-        <v>2.89</v>
+        <v>3.1</v>
       </c>
       <c r="I39" t="n">
         <v>1.06</v>
@@ -4721,7 +4721,7 @@
         <v>3.2</v>
       </c>
       <c r="M39" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
         <v>1.75</v>
@@ -4763,28 +4763,28 @@
         <v>2.37</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB39" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AD39" t="n">
         <v>0</v>
       </c>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AG39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH39" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="40">
@@ -4810,25 +4810,25 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.29</v>
+        <v>3.4</v>
       </c>
       <c r="G40" t="n">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J40" t="n">
         <v>6.5</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M40" t="n">
         <v>2.3</v>
@@ -4873,28 +4873,28 @@
         <v>3.46</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="41">
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="G41" t="n">
         <v>3.7</v>
       </c>
       <c r="H41" t="n">
-        <v>3.35</v>
+        <v>4.05</v>
       </c>
       <c r="I41" t="n">
         <v>1.03</v>
@@ -4941,10 +4941,10 @@
         <v>4.6</v>
       </c>
       <c r="M41" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="N41" t="n">
-        <v>2.37</v>
+        <v>2.19</v>
       </c>
       <c r="O41" t="n">
         <v>1.3</v>
@@ -5030,10 +5030,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.35</v>
+        <v>2.02</v>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H42" t="n">
         <v>3.2</v>
@@ -5051,10 +5051,10 @@
         <v>2.95</v>
       </c>
       <c r="M42" t="n">
-        <v>2.33</v>
+        <v>1.95</v>
       </c>
       <c r="N42" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="O42" t="n">
         <v>1.44</v>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H43" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="I43" t="n">
         <v>1.04</v>
@@ -5161,10 +5161,10 @@
         <v>4.08</v>
       </c>
       <c r="M43" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="N43" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
@@ -5250,13 +5250,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.34</v>
+        <v>3.4</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
       </c>
       <c r="H44" t="n">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -5271,10 +5271,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N44" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -5313,13 +5313,13 @@
         <v>1.86</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AD44" t="n">
         <v>0</v>
@@ -5328,7 +5328,7 @@
         <v>0</v>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG44" t="n">
         <v>0</v>
@@ -5360,13 +5360,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="G45" t="n">
-        <v>3.22</v>
+        <v>2.83</v>
       </c>
       <c r="H45" t="n">
-        <v>3.18</v>
+        <v>2.63</v>
       </c>
       <c r="I45" t="n">
         <v>1.06</v>
@@ -5381,10 +5381,10 @@
         <v>3.4</v>
       </c>
       <c r="M45" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N45" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O45" t="n">
         <v>1.41</v>
@@ -5423,25 +5423,25 @@
         <v>2.89</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AD45" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AE45" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AH45" t="n">
         <v>0</v>
@@ -5533,28 +5533,28 @@
         <v>2.8</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="AD46" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF46" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AG46" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH46" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="47">
@@ -5580,13 +5580,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -5604,7 +5604,7 @@
         <v>2.3</v>
       </c>
       <c r="N47" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -5613,10 +5613,10 @@
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
         <v>1.46</v>
@@ -5643,13 +5643,13 @@
         <v>3.85</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AB47" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC47" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AD47" t="n">
         <v>0</v>
@@ -5658,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG47" t="n">
         <v>0</v>
@@ -5690,13 +5690,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="G48" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -5714,7 +5714,7 @@
         <v>1.75</v>
       </c>
       <c r="N48" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -5723,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="R48" t="n">
         <v>1.53</v>
@@ -5753,13 +5753,13 @@
         <v>0.77</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AD48" t="n">
         <v>0</v>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="AF48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG48" t="n">
         <v>0</v>
@@ -5800,13 +5800,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>3.26</v>
+        <v>2.85</v>
       </c>
       <c r="G49" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="H49" t="n">
-        <v>2.21</v>
+        <v>2.19</v>
       </c>
       <c r="I49" t="n">
         <v>1.04</v>
@@ -5821,10 +5821,10 @@
         <v>3.24</v>
       </c>
       <c r="M49" t="n">
-        <v>2.06</v>
+        <v>1.9</v>
       </c>
       <c r="N49" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="O49" t="n">
         <v>1.38</v>
@@ -5863,25 +5863,25 @@
         <v>2.61</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AB49" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AC49" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AD49" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE49" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF49" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AH49" t="n">
         <v>0</v>
@@ -5910,13 +5910,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -5931,10 +5931,10 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -5964,13 +5964,13 @@
         <v>1.2</v>
       </c>
       <c r="X50" t="n">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
       <c r="Y50" t="n">
         <v>1.05</v>
       </c>
       <c r="Z50" t="n">
-        <v>2.14</v>
+        <v>2.31</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
@@ -6020,13 +6020,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2023-04-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="G2" t="n">
-        <v>2.84</v>
+        <v>3.06</v>
       </c>
       <c r="H2" t="n">
-        <v>3.21</v>
+        <v>4.13</v>
       </c>
       <c r="I2" t="n">
         <v>1.07</v>
@@ -653,10 +653,10 @@
         <v>2.35</v>
       </c>
       <c r="M2" t="n">
-        <v>2.31</v>
+        <v>2.77</v>
       </c>
       <c r="N2" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -680,10 +680,10 @@
         <v>1.66</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W2" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="X2" t="n">
         <v>2.02</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.98</v>
+        <v>3.16</v>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="H3" t="n">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="I3" t="n">
         <v>1.07</v>
@@ -763,10 +763,10 @@
         <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
       <c r="N3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -790,10 +790,10 @@
         <v>1.35</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>1.61</v>
@@ -814,19 +814,19 @@
         <v>1.64</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AF3" t="n">
         <v>1.95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.83</v>
+        <v>1.46</v>
       </c>
       <c r="G4" t="n">
-        <v>3.02</v>
+        <v>4.34</v>
       </c>
       <c r="H4" t="n">
-        <v>3.52</v>
+        <v>6.83</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -903,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="X4" t="n">
         <v>1.21</v>
@@ -915,13 +915,13 @@
         <v>2.22</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AD4" t="n">
         <v>1.36</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.1</v>
+        <v>1.86</v>
       </c>
       <c r="G5" t="n">
-        <v>2.83</v>
+        <v>3.17</v>
       </c>
       <c r="H5" t="n">
-        <v>3.02</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
         <v>1.09</v>
@@ -983,10 +983,10 @@
         <v>2.35</v>
       </c>
       <c r="M5" t="n">
-        <v>2.31</v>
+        <v>2.41</v>
       </c>
       <c r="N5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.57</v>
@@ -1013,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="X5" t="n">
         <v>1.44</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="G6" t="n">
-        <v>3.8</v>
+        <v>4.14</v>
       </c>
       <c r="H6" t="n">
-        <v>4.55</v>
+        <v>5.18</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1093,10 +1093,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="N6" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="X6" t="n">
         <v>1.59</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="G7" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
-        <v>5.43</v>
+        <v>6.02</v>
       </c>
       <c r="I7" t="n">
         <v>1.01</v>
@@ -1203,10 +1203,10 @@
         <v>2.8</v>
       </c>
       <c r="M7" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="N7" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.46</v>
@@ -1230,10 +1230,10 @@
         <v>2.35</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="X7" t="n">
         <v>1.68</v>
@@ -1263,7 +1263,7 @@
         <v>2.79</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="G8" t="n">
-        <v>3.05</v>
+        <v>3.26</v>
       </c>
       <c r="H8" t="n">
-        <v>3.66</v>
+        <v>4.81</v>
       </c>
       <c r="I8" t="n">
         <v>1.09</v>
@@ -1313,10 +1313,10 @@
         <v>2.62</v>
       </c>
       <c r="M8" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1340,10 +1340,10 @@
         <v>1.83</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="W8" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="X8" t="n">
         <v>1.96</v>
@@ -1355,13 +1355,13 @@
         <v>3.41</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="AD8" t="n">
         <v>1.5</v>
@@ -1376,7 +1376,7 @@
         <v>3.25</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="9">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="G10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1558,10 +1558,10 @@
         <v>1.68</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="W10" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X10" t="n">
         <v>1.54</v>
@@ -1582,16 +1582,16 @@
         <v>2.98</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE10" t="n">
         <v>1.7</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1620,13 +1620,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="G11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1641,10 +1641,10 @@
         <v>3.3</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="N11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
@@ -1668,10 +1668,10 @@
         <v>1.63</v>
       </c>
       <c r="V11" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W11" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="X11" t="n">
         <v>1.56</v>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="G12" t="n">
         <v>3.5</v>
@@ -1754,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O12" t="n">
         <v>1.47</v>
@@ -1793,28 +1793,28 @@
         <v>2.98</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="13">
@@ -1840,52 +1840,52 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M13" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
         <v>2.42</v>
@@ -1950,13 +1950,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="G14" t="n">
         <v>3.25</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I14" t="n">
         <v>1.02</v>
@@ -1971,10 +1971,10 @@
         <v>3.2</v>
       </c>
       <c r="M14" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="N14" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -1983,10 +1983,10 @@
         <v>2.82</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.8</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.91</v>
       </c>
       <c r="S14" t="n">
         <v>1.78</v>
@@ -2013,28 +2013,28 @@
         <v>3.24</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="15">
@@ -2060,13 +2060,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
         <v>1.03</v>
@@ -2081,10 +2081,10 @@
         <v>2.93</v>
       </c>
       <c r="M15" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="N15" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="O15" t="n">
         <v>1.44</v>
@@ -2123,28 +2123,28 @@
         <v>3.31</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="16">
@@ -2283,10 +2283,10 @@
         <v>4.33</v>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="I17" t="n">
         <v>1.05</v>
@@ -2301,7 +2301,7 @@
         <v>3.15</v>
       </c>
       <c r="M17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
         <v>1.7</v>
@@ -2393,10 +2393,10 @@
         <v>2.9</v>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="I18" t="n">
         <v>1.05</v>
@@ -2411,10 +2411,10 @@
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.42</v>
@@ -2453,28 +2453,28 @@
         <v>3.33</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -2500,13 +2500,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="G19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.3</v>
       </c>
       <c r="I19" t="n">
         <v>1.05</v>
@@ -2521,10 +2521,10 @@
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="N19" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
         <v>1.44</v>
@@ -2533,10 +2533,10 @@
         <v>2.63</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S19" t="n">
         <v>1.25</v>
@@ -2563,28 +2563,28 @@
         <v>2.64</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="20">
@@ -2610,13 +2610,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="H20" t="n">
-        <v>4.21</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
         <v>1.05</v>
@@ -2631,10 +2631,10 @@
         <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="N20" t="n">
-        <v>1.82</v>
+        <v>2.05</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -2830,13 +2830,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="G22" t="n">
-        <v>4.65</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
         <v>1.03</v>
@@ -2851,10 +2851,10 @@
         <v>4.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="N22" t="n">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="O22" t="n">
         <v>1.28</v>
@@ -2943,10 +2943,10 @@
         <v>3.1</v>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I23" t="n">
         <v>1.07</v>
@@ -2961,10 +2961,10 @@
         <v>2.87</v>
       </c>
       <c r="M23" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="N23" t="n">
-        <v>1.72</v>
+        <v>1.88</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3003,28 +3003,28 @@
         <v>3.16</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -3050,13 +3050,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="G24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I24" t="n">
         <v>1.02</v>
@@ -3071,16 +3071,16 @@
         <v>4.8</v>
       </c>
       <c r="M24" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="N24" t="n">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Q24" t="n">
         <v>1.45</v>
@@ -3160,13 +3160,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="G25" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.29</v>
+        <v>2.15</v>
       </c>
       <c r="I25" t="n">
         <v>1.02</v>
@@ -3181,16 +3181,16 @@
         <v>4.65</v>
       </c>
       <c r="M25" t="n">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="N25" t="n">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Q25" t="n">
         <v>1.48</v>
@@ -3270,13 +3270,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="G26" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.49</v>
       </c>
       <c r="I26" t="n">
         <v>1.02</v>
@@ -3297,10 +3297,10 @@
         <v>2.28</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="Q26" t="n">
         <v>1.46</v>
@@ -3380,16 +3380,16 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J27" t="n">
         <v>17</v>
@@ -3413,19 +3413,19 @@
         <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="V27" t="n">
         <v>1.69</v>
@@ -3493,10 +3493,10 @@
         <v>2.8</v>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
-        <v>2.41</v>
+        <v>2.25</v>
       </c>
       <c r="I28" t="n">
         <v>1.03</v>
@@ -3511,16 +3511,16 @@
         <v>3.8</v>
       </c>
       <c r="M28" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="N28" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="Q28" t="n">
         <v>1.55</v>
@@ -3600,13 +3600,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="G29" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I29" t="n">
         <v>1.01</v>
@@ -3621,10 +3621,10 @@
         <v>3.45</v>
       </c>
       <c r="M29" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="N29" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="O29" t="n">
         <v>1.36</v>
@@ -3710,13 +3710,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="G30" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I30" t="n">
         <v>1.04</v>
@@ -3731,10 +3731,10 @@
         <v>3.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="N30" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="O30" t="n">
         <v>1.41</v>
@@ -3820,10 +3820,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
@@ -3841,10 +3841,10 @@
         <v>3.3</v>
       </c>
       <c r="M31" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="N31" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -4040,13 +4040,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="G33" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="H33" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
         <v>1.06</v>
@@ -4061,10 +4061,10 @@
         <v>3.3</v>
       </c>
       <c r="M33" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="N33" t="n">
         <v>1.93</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.88</v>
       </c>
       <c r="O33" t="n">
         <v>1.4</v>
@@ -4112,7 +4112,7 @@
         <v>2.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE33" t="n">
         <v>1.68</v>
@@ -4121,10 +4121,10 @@
         <v>2.1</v>
       </c>
       <c r="AG33" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AH33" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="34">
@@ -4150,13 +4150,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="G34" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H34" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="I34" t="n">
         <v>1.04</v>
@@ -4171,10 +4171,10 @@
         <v>4.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="N34" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
@@ -4222,10 +4222,10 @@
         <v>1.86</v>
       </c>
       <c r="AD34" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE34" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF34" t="n">
         <v>1.8</v>
@@ -4234,7 +4234,7 @@
         <v>2.16</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -4260,10 +4260,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H35" t="n">
         <v>2.35</v>
@@ -4281,10 +4281,10 @@
         <v>4.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="N35" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O35" t="n">
         <v>1.28</v>
@@ -4370,13 +4370,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="I36" t="n">
         <v>1.03</v>
@@ -4391,10 +4391,10 @@
         <v>3.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="N36" t="n">
-        <v>2.2</v>
+        <v>2.13</v>
       </c>
       <c r="O36" t="n">
         <v>1.35</v>
@@ -4433,28 +4433,28 @@
         <v>2.66</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AD36" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF36" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG36" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -4480,10 +4480,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H37" t="n">
         <v>2.45</v>
@@ -4501,10 +4501,10 @@
         <v>3.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="N37" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="O37" t="n">
         <v>1.37</v>
@@ -4543,28 +4543,28 @@
         <v>2.96</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AB37" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AD37" t="n">
         <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AG37" t="n">
         <v>1.98</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="38">
@@ -4590,13 +4590,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="G38" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H38" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
         <v>1.05</v>
@@ -4611,7 +4611,7 @@
         <v>3.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="N38" t="n">
         <v>1.95</v>
@@ -4700,13 +4700,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G39" t="n">
         <v>3.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
         <v>1.06</v>
@@ -4721,7 +4721,7 @@
         <v>3.2</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N39" t="n">
         <v>1.75</v>
@@ -4813,10 +4813,10 @@
         <v>3.4</v>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H40" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I40" t="n">
         <v>1.08</v>
@@ -4831,10 +4831,10 @@
         <v>2.7</v>
       </c>
       <c r="M40" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="N40" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O40" t="n">
         <v>1.5</v>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="G41" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H41" t="n">
-        <v>4.05</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
         <v>1.03</v>
@@ -4941,10 +4941,10 @@
         <v>4.6</v>
       </c>
       <c r="M41" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="N41" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="O41" t="n">
         <v>1.3</v>
@@ -5030,13 +5030,13 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="G42" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I42" t="n">
         <v>1.08</v>
@@ -5051,10 +5051,10 @@
         <v>2.95</v>
       </c>
       <c r="M42" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N42" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="O42" t="n">
         <v>1.44</v>
@@ -5140,13 +5140,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="G43" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="H43" t="n">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="I43" t="n">
         <v>1.04</v>
@@ -5161,10 +5161,10 @@
         <v>4.08</v>
       </c>
       <c r="M43" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="N43" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O43" t="n">
         <v>1.3</v>
@@ -5203,28 +5203,28 @@
         <v>2.93</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
+        <v>3.98</v>
       </c>
       <c r="AB43" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC43" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AD43" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE43" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG43" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH43" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="44">
@@ -5250,43 +5250,43 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H44" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="M44" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="N44" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R44" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="S44" t="n">
         <v>1.49</v>
@@ -5313,28 +5313,28 @@
         <v>1.86</v>
       </c>
       <c r="AA44" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AB44" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="AC44" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="AD44" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AE44" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF44" t="n">
         <v>2.1</v>
       </c>
       <c r="AG44" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="45">
@@ -5360,13 +5360,13 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="G45" t="n">
-        <v>2.83</v>
+        <v>3.05</v>
       </c>
       <c r="H45" t="n">
-        <v>2.63</v>
+        <v>2.85</v>
       </c>
       <c r="I45" t="n">
         <v>1.06</v>
@@ -5375,16 +5375,16 @@
         <v>9.5</v>
       </c>
       <c r="K45" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="L45" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="M45" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="N45" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O45" t="n">
         <v>1.41</v>
@@ -5583,40 +5583,40 @@
         <v>3.1</v>
       </c>
       <c r="G47" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H47" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="M47" t="n">
         <v>2.3</v>
       </c>
       <c r="N47" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R47" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="S47" t="n">
         <v>1.46</v>
@@ -5643,28 +5643,28 @@
         <v>3.85</v>
       </c>
       <c r="AA47" t="n">
-        <v>2.07</v>
+        <v>2.42</v>
       </c>
       <c r="AB47" t="n">
-        <v>8.9</v>
+        <v>6.8</v>
       </c>
       <c r="AC47" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF47" t="n">
         <v>2.1</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="48">
@@ -5690,43 +5690,43 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="G48" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H48" t="n">
+        <v>16</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J48" t="n">
         <v>15</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="M48" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="N48" t="n">
-        <v>2.05</v>
+        <v>1.96</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="R48" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="S48" t="n">
         <v>1.04</v>
@@ -5753,28 +5753,28 @@
         <v>0.77</v>
       </c>
       <c r="AA48" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AB48" t="n">
         <v>13.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.9</v>
+        <v>5.45</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF48" t="n">
         <v>2</v>
       </c>
       <c r="AG48" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="49">
@@ -5800,13 +5800,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="G49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H49" t="n">
-        <v>2.19</v>
+        <v>2.46</v>
       </c>
       <c r="I49" t="n">
         <v>1.04</v>
@@ -5821,10 +5821,10 @@
         <v>3.24</v>
       </c>
       <c r="M49" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="N49" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O49" t="n">
         <v>1.38</v>
@@ -5910,10 +5910,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="G50" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H50" t="n">
         <v>4.1</v>
@@ -5967,10 +5967,10 @@
         <v>1.26</v>
       </c>
       <c r="Y50" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Z50" t="n">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
       <c r="AA50" t="n">
         <v>0</v>
@@ -6020,52 +6020,52 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="G51" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="H51" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>7.35</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="V51" t="n">
         <v>1.5</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="AF51" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AG51" t="n">
         <v>0</v>
